--- a/_._/OLD/2022-2/tcc1_SIS_banca.xlsx
+++ b/_._/OLD/2022-2/tcc1_SIS_banca.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mclopes\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E4751-6D3F-4E03-9E0A-B8FBD60C8E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Alunos" sheetId="1" r:id="rId4"/>
+    <sheet name="Alunos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Nome</t>
   </si>
@@ -45,7 +54,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -65,7 +74,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -85,7 +94,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -105,7 +114,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -125,7 +134,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -142,7 +151,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -159,7 +168,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -179,7 +188,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -196,7 +205,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -213,7 +222,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -230,7 +239,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -247,7 +256,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -264,7 +273,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="15"/>
         <rFont val="Arial"/>
@@ -275,32 +284,31 @@
   <si>
     <t>Aplicativo de Recomendação e Avaliação no Setor Médico</t>
   </si>
+  <si>
+    <t>Gilvan</t>
+  </si>
+  <si>
+    <t>Marcel</t>
+  </si>
+  <si>
+    <t>Péricas</t>
+  </si>
+  <si>
+    <t>Andreza</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -311,13 +319,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -397,64 +405,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +443,7 @@
   <dxfs count="1">
     <dxf>
       <font>
-        <color rgb="ff000000"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -476,29 +456,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="e588ccff"/>
-      <rgbColor rgb="ff61a7eb"/>
-      <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="E588CCFF"/>
+      <rgbColor rgb="FF61A7EB"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Tema do Office">
       <a:dk1>
@@ -700,7 +736,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -719,7 +755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -749,7 +785,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,7 +811,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -801,7 +837,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -827,7 +863,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -853,7 +889,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -879,7 +915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -905,7 +941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -931,7 +967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -957,7 +993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,9 +1006,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -989,7 +1031,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1008,7 +1050,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1076,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1102,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1154,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1180,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,9 +1297,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1271,7 +1319,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1290,7 +1338,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1398,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1450,7 +1498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1476,7 +1524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,7 +1550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1528,7 +1576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1541,358 +1589,406 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="15.45" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.35156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85156" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" customWidth="1"/>
     <col min="7" max="7" width="102" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.1" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.2" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="6">
         <v>201474</v>
       </c>
-      <c r="C2" t="s" s="7">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s" s="9">
+      <c r="F2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s" s="7">
+      <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" t="s" s="10">
+    <row r="3" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="11">
         <v>187518</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="13"/>
-      <c r="E3" t="s" s="12">
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s" s="14">
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="15">
+      <c r="G3" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="H3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" ht="13" customHeight="1">
-      <c r="A4" t="s" s="16">
+    <row r="4" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="11">
         <v>200655</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="13"/>
-      <c r="E4" t="s" s="12">
+      <c r="E4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s" s="14">
+      <c r="F4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s" s="15">
+      <c r="G4" s="15" t="s">
         <v>19</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" t="s" s="16">
+    <row r="5" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="11">
         <v>203716</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" t="s" s="12">
+      <c r="E5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s" s="14">
+      <c r="F5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s" s="15">
+      <c r="G5" s="15" t="s">
         <v>23</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" t="s" s="16">
+    <row r="6" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="11">
         <v>197029</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" t="s" s="12">
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s" s="14">
+      <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s" s="15">
+      <c r="G6" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" t="s" s="16">
+    <row r="7" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="11">
         <v>78698</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" t="s" s="12">
+      <c r="E7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s" s="14">
+      <c r="F7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s" s="15">
+      <c r="G7" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="8" ht="13" customHeight="1">
-      <c r="A8" t="s" s="16">
+    <row r="8" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="11">
         <v>201040</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D8" s="13"/>
-      <c r="E8" t="s" s="12">
+      <c r="E8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F8" t="s" s="14">
+      <c r="F8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s" s="15">
+      <c r="G8" s="15" t="s">
         <v>33</v>
       </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="9" ht="13" customHeight="1">
-      <c r="A9" t="s" s="16">
+    <row r="9" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="11">
         <v>197272</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="13"/>
-      <c r="E9" t="s" s="12">
+      <c r="E9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s" s="14">
+      <c r="F9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" t="s" s="16">
+    <row r="10" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="11">
         <v>204114</v>
       </c>
-      <c r="C10" t="s" s="12">
+      <c r="C10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="13"/>
-      <c r="E10" t="s" s="12">
+      <c r="E10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s" s="14">
+      <c r="F10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" t="s" s="16">
+    <row r="11" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="11">
         <v>204285</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="13"/>
-      <c r="E11" t="s" s="12">
+      <c r="E11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F11" t="s" s="14">
+      <c r="F11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G11" t="s" s="15">
+      <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" t="s" s="16">
+    <row r="12" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="11">
         <v>204231</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" t="s" s="12">
+      <c r="E12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s" s="17">
+      <c r="F12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" t="s" s="16">
+    <row r="13" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="11">
         <v>205097</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="13"/>
-      <c r="E13" t="s" s="12">
+      <c r="E13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F13" t="s" s="17">
+      <c r="F13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="14" ht="13" customHeight="1">
-      <c r="A14" t="s" s="16">
+    <row r="14" spans="1:8" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="11">
         <v>201072</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" s="12" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" t="s" s="12">
+      <c r="E14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F14" t="s" s="17">
+      <c r="F14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" s="12" t="s">
         <v>52</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Dalton"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" location="" tooltip="" display="cmedina@furb.br"/>
-    <hyperlink ref="F3" r:id="rId2" location="" tooltip="" display="felipev@furb.br"/>
-    <hyperlink ref="F4" r:id="rId3" location="" tooltip="" display="gabrielandrade@furb.br"/>
-    <hyperlink ref="F5" r:id="rId4" location="" tooltip="" display="hhgollnick@furb.br"/>
-    <hyperlink ref="F6" r:id="rId5" location="" tooltip="" display="hclemente@furb.br"/>
-    <hyperlink ref="F7" r:id="rId6" location="" tooltip="" display="jmmelo@furb.br"/>
-    <hyperlink ref="F8" r:id="rId7" location="" tooltip="" display="jmslima@furb.br"/>
-    <hyperlink ref="F9" r:id="rId8" location="" tooltip="" display="leonardobertol@furb.br"/>
-    <hyperlink ref="F10" r:id="rId9" location="" tooltip="" display="leonardocognacco@furb.br"/>
-    <hyperlink ref="F11" r:id="rId10" location="" tooltip="" display="lapoffo@furb.br"/>
-    <hyperlink ref="F12" r:id="rId11" location="" tooltip="" display="mvventuri@furb.br"/>
-    <hyperlink ref="F13" r:id="rId12" location="" tooltip="" display="vtgomes@furb.br"/>
-    <hyperlink ref="F14" r:id="rId13" location="" tooltip="" display="vhfandrade@furb.br"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
